--- a/my_project.xlsx
+++ b/my_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYhomework_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E079E42-E2C0-4D81-90A8-D75A5A85DC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A708595-5CD5-4F53-A898-30446EA5D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Фамилия</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Аниськин</t>
   </si>
   <si>
+    <t>Артёмов</t>
+  </si>
+  <si>
     <t>Арсен</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>Егор</t>
   </si>
   <si>
+    <t>Артём</t>
+  </si>
+  <si>
     <t>Петрович</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
   </si>
   <si>
     <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Артёмович</t>
   </si>
   <si>
     <t>личный</t>
@@ -493,13 +502,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="D17:E17"/>
+      <selection activeCell="A8" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -529,16 +542,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>525453545</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,16 +562,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>789456</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,16 +582,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>8515695</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,16 +602,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>8878987</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,16 +622,36 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1945654</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1549587454</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
